--- a/path_3b/data/01_raw/data_contributor_3/dataset3.xlsx
+++ b/path_3b/data/01_raw/data_contributor_3/dataset3.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="236">
   <si>
     <t>Chromis acares</t>
   </si>
@@ -1052,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H774"/>
+  <dimension ref="A1:H775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="F759" sqref="F759"/>
+    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
+      <selection activeCell="G776" sqref="G776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21181,6 +21181,32 @@
         <v>1</v>
       </c>
       <c r="H774">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>2016</v>
+      </c>
+      <c r="B775" s="1">
+        <v>42514</v>
+      </c>
+      <c r="C775" t="s">
+        <v>116</v>
+      </c>
+      <c r="D775" t="s">
+        <v>235</v>
+      </c>
+      <c r="E775">
+        <v>1</v>
+      </c>
+      <c r="F775" t="s">
+        <v>234</v>
+      </c>
+      <c r="G775">
+        <v>-15</v>
+      </c>
+      <c r="H775">
         <v>5</v>
       </c>
     </row>

--- a/path_3b/data/01_raw/data_contributor_3/dataset3.xlsx
+++ b/path_3b/data/01_raw/data_contributor_3/dataset3.xlsx
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
-      <selection activeCell="G776" sqref="G776"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>131</v>
       </c>
       <c r="G2">
-        <v>310</v>
+        <v>620</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1132,7 +1132,7 @@
         <v>131</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1158,7 +1158,7 @@
         <v>131</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1184,7 +1184,7 @@
         <v>131</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1210,7 +1210,7 @@
         <v>132</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>132</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1262,7 +1262,7 @@
         <v>133</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -1288,7 +1288,7 @@
         <v>133</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1314,7 +1314,7 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -1340,7 +1340,7 @@
         <v>134</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1366,7 +1366,7 @@
         <v>134</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -1392,7 +1392,7 @@
         <v>134</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1418,7 +1418,7 @@
         <v>134</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -1444,7 +1444,7 @@
         <v>134</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1470,7 +1470,7 @@
         <v>134</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1496,7 +1496,7 @@
         <v>135</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>6</v>
@@ -1522,7 +1522,7 @@
         <v>135</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>135</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -1574,7 +1574,7 @@
         <v>135</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -1600,7 +1600,7 @@
         <v>135</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>136</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>6</v>
@@ -1652,7 +1652,7 @@
         <v>136</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1678,7 +1678,7 @@
         <v>137</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>137</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>7</v>
@@ -1730,7 +1730,7 @@
         <v>138</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>8</v>
@@ -1756,7 +1756,7 @@
         <v>138</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1782,7 +1782,7 @@
         <v>138</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>6</v>
@@ -1808,7 +1808,7 @@
         <v>139</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>12</v>
@@ -1834,7 +1834,7 @@
         <v>139</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>16</v>
@@ -1860,7 +1860,7 @@
         <v>139</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>18</v>
@@ -1886,7 +1886,7 @@
         <v>140</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>13</v>
@@ -1912,7 +1912,7 @@
         <v>140</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>140</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         <v>140</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -1990,7 +1990,7 @@
         <v>141</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>141</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>141</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H38">
         <v>8</v>
@@ -2068,7 +2068,7 @@
         <v>142</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
         <v>23</v>
@@ -2094,7 +2094,7 @@
         <v>142</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>22</v>
@@ -2120,7 +2120,7 @@
         <v>142</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>18</v>
@@ -2146,7 +2146,7 @@
         <v>143</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <v>20</v>
@@ -2172,7 +2172,7 @@
         <v>143</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>21</v>
@@ -2198,7 +2198,7 @@
         <v>144</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2224,7 +2224,7 @@
         <v>144</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>6</v>
@@ -2250,7 +2250,7 @@
         <v>144</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H46">
         <v>8</v>
@@ -2276,7 +2276,7 @@
         <v>145</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2302,7 +2302,7 @@
         <v>145</v>
       </c>
       <c r="G48">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -2328,7 +2328,7 @@
         <v>145</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2354,7 +2354,7 @@
         <v>145</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -2380,7 +2380,7 @@
         <v>146</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>16</v>
@@ -2406,7 +2406,7 @@
         <v>146</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>18</v>
@@ -2432,7 +2432,7 @@
         <v>146</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>22</v>
@@ -2458,7 +2458,7 @@
         <v>147</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -2484,7 +2484,7 @@
         <v>147</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>8</v>
@@ -2510,7 +2510,7 @@
         <v>147</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56">
         <v>12</v>
@@ -2536,7 +2536,7 @@
         <v>147</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57">
         <v>14</v>
@@ -2562,7 +2562,7 @@
         <v>148</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58">
         <v>11</v>
@@ -2588,7 +2588,7 @@
         <v>148</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>16</v>
@@ -2614,7 +2614,7 @@
         <v>149</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>13</v>
@@ -2640,7 +2640,7 @@
         <v>149</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61">
         <v>11</v>
@@ -2666,7 +2666,7 @@
         <v>149</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>10</v>
@@ -2692,7 +2692,7 @@
         <v>150</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -2718,7 +2718,7 @@
         <v>151</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>22</v>
@@ -2744,7 +2744,7 @@
         <v>152</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65">
         <v>16</v>
@@ -2770,7 +2770,7 @@
         <v>152</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H66">
         <v>14</v>
@@ -2796,7 +2796,7 @@
         <v>152</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>13</v>
@@ -2822,7 +2822,7 @@
         <v>153</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>45</v>
@@ -2848,7 +2848,7 @@
         <v>154</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>13</v>
@@ -2874,7 +2874,7 @@
         <v>155</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>48</v>
@@ -2900,7 +2900,7 @@
         <v>156</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71">
         <v>22</v>
@@ -2926,7 +2926,7 @@
         <v>156</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72">
         <v>27</v>
@@ -2952,7 +2952,7 @@
         <v>157</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -2978,7 +2978,7 @@
         <v>157</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -3004,7 +3004,7 @@
         <v>158</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>16</v>
@@ -3030,7 +3030,7 @@
         <v>159</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76">
         <v>18</v>
@@ -3056,7 +3056,7 @@
         <v>159</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>17</v>
@@ -3082,7 +3082,7 @@
         <v>160</v>
       </c>
       <c r="G78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -3108,7 +3108,7 @@
         <v>161</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>17</v>
@@ -3134,7 +3134,7 @@
         <v>161</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80">
         <v>16</v>
@@ -3160,7 +3160,7 @@
         <v>161</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>14</v>
@@ -3186,7 +3186,7 @@
         <v>162</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>18</v>
@@ -3212,7 +3212,7 @@
         <v>147</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>16</v>
@@ -3238,7 +3238,7 @@
         <v>147</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
         <v>15</v>
@@ -3264,7 +3264,7 @@
         <v>163</v>
       </c>
       <c r="G85">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -3290,7 +3290,7 @@
         <v>163</v>
       </c>
       <c r="G86">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -3316,7 +3316,7 @@
         <v>163</v>
       </c>
       <c r="G87">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -3342,7 +3342,7 @@
         <v>164</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>17</v>
@@ -3368,7 +3368,7 @@
         <v>164</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>164</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90">
         <v>13</v>
@@ -3420,7 +3420,7 @@
         <v>164</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
         <v>8</v>
@@ -3446,7 +3446,7 @@
         <v>165</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H92">
         <v>7</v>
@@ -3472,7 +3472,7 @@
         <v>165</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H93">
         <v>8</v>
@@ -3498,7 +3498,7 @@
         <v>165</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
         <v>5</v>
@@ -3524,7 +3524,7 @@
         <v>165</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>8</v>
@@ -3550,7 +3550,7 @@
         <v>165</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96">
         <v>10</v>
@@ -3576,7 +3576,7 @@
         <v>165</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -3602,7 +3602,7 @@
         <v>166</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>12</v>
@@ -3628,7 +3628,7 @@
         <v>166</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
         <v>8</v>
@@ -3654,7 +3654,7 @@
         <v>166</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <v>10</v>
@@ -3680,7 +3680,7 @@
         <v>166</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>14</v>
@@ -3706,7 +3706,7 @@
         <v>166</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3732,7 +3732,7 @@
         <v>167</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H103">
         <v>14</v>
@@ -3758,7 +3758,7 @@
         <v>168</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>18</v>
@@ -3784,7 +3784,7 @@
         <v>168</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105">
         <v>19</v>
@@ -3810,7 +3810,7 @@
         <v>169</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106">
         <v>16</v>
@@ -3836,7 +3836,7 @@
         <v>170</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107">
         <v>6</v>
@@ -3862,7 +3862,7 @@
         <v>170</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -3888,7 +3888,7 @@
         <v>170</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>8</v>
@@ -3914,7 +3914,7 @@
         <v>171</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110">
         <v>12</v>
@@ -3940,7 +3940,7 @@
         <v>171</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
         <v>10</v>
@@ -3966,7 +3966,7 @@
         <v>172</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112">
         <v>11</v>
@@ -3992,7 +3992,7 @@
         <v>173</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>12</v>
@@ -4018,7 +4018,7 @@
         <v>173</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         <v>173</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <v>13</v>
@@ -4070,7 +4070,7 @@
         <v>174</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116">
         <v>16</v>
@@ -4096,7 +4096,7 @@
         <v>174</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117">
         <v>13</v>
@@ -4122,7 +4122,7 @@
         <v>175</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118">
         <v>14</v>
@@ -4148,7 +4148,7 @@
         <v>176</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119">
         <v>11</v>
@@ -4174,7 +4174,7 @@
         <v>176</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>9</v>
@@ -4200,7 +4200,7 @@
         <v>177</v>
       </c>
       <c r="G121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121">
         <v>21</v>
@@ -4226,7 +4226,7 @@
         <v>178</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122">
         <v>35</v>
@@ -4252,7 +4252,7 @@
         <v>179</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H123">
         <v>30</v>
@@ -4278,7 +4278,7 @@
         <v>180</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H124">
         <v>45</v>
@@ -4304,7 +4304,7 @@
         <v>181</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125">
         <v>5</v>
@@ -4330,7 +4330,7 @@
         <v>182</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>15</v>
@@ -4356,7 +4356,7 @@
         <v>183</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H127">
         <v>10</v>
@@ -4382,7 +4382,7 @@
         <v>183</v>
       </c>
       <c r="G128">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H128">
         <v>8</v>
@@ -4408,7 +4408,7 @@
         <v>183</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>12</v>
@@ -4434,7 +4434,7 @@
         <v>183</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130">
         <v>11</v>
@@ -4460,7 +4460,7 @@
         <v>183</v>
       </c>
       <c r="G131">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>6</v>
@@ -4486,7 +4486,7 @@
         <v>184</v>
       </c>
       <c r="G132">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H132">
         <v>6</v>
@@ -4512,7 +4512,7 @@
         <v>184</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -4538,7 +4538,7 @@
         <v>184</v>
       </c>
       <c r="G134">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -4564,7 +4564,7 @@
         <v>185</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -4590,7 +4590,7 @@
         <v>185</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -4616,7 +4616,7 @@
         <v>186</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>19</v>
@@ -4642,7 +4642,7 @@
         <v>186</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138">
         <v>17</v>
@@ -4668,7 +4668,7 @@
         <v>187</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>16</v>
@@ -4694,7 +4694,7 @@
         <v>187</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140">
         <v>18</v>
@@ -4720,7 +4720,7 @@
         <v>141</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -4746,7 +4746,7 @@
         <v>141</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142">
         <v>4</v>
@@ -4772,7 +4772,7 @@
         <v>188</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>8</v>
@@ -4798,7 +4798,7 @@
         <v>189</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -4824,7 +4824,7 @@
         <v>189</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
         <v>5</v>
@@ -4850,7 +4850,7 @@
         <v>190</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
         <v>7</v>
@@ -4876,7 +4876,7 @@
         <v>191</v>
       </c>
       <c r="G147">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H147">
         <v>6</v>
@@ -4902,7 +4902,7 @@
         <v>191</v>
       </c>
       <c r="G148">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>8</v>
@@ -4928,7 +4928,7 @@
         <v>191</v>
       </c>
       <c r="G149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H149">
         <v>10</v>
@@ -4954,7 +4954,7 @@
         <v>131</v>
       </c>
       <c r="G150">
-        <v>430</v>
+        <v>860</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -4980,7 +4980,7 @@
         <v>131</v>
       </c>
       <c r="G151">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>159</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152">
         <v>18</v>
@@ -5032,7 +5032,7 @@
         <v>159</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153">
         <v>12</v>
@@ -5058,7 +5058,7 @@
         <v>159</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H154">
         <v>16</v>
@@ -5084,7 +5084,7 @@
         <v>159</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -5110,7 +5110,7 @@
         <v>147</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156">
         <v>16</v>
@@ -5136,7 +5136,7 @@
         <v>133</v>
       </c>
       <c r="G157">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H157">
         <v>8</v>
@@ -5162,7 +5162,7 @@
         <v>133</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H158">
         <v>10</v>
@@ -5188,7 +5188,7 @@
         <v>132</v>
       </c>
       <c r="G159">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H159">
         <v>3</v>
@@ -5214,7 +5214,7 @@
         <v>132</v>
       </c>
       <c r="G160">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -5240,7 +5240,7 @@
         <v>192</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
         <v>5</v>
@@ -5266,7 +5266,7 @@
         <v>157</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -5292,7 +5292,7 @@
         <v>157</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -5318,7 +5318,7 @@
         <v>193</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -5344,7 +5344,7 @@
         <v>193</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -5370,7 +5370,7 @@
         <v>138</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166">
         <v>8</v>
@@ -5396,7 +5396,7 @@
         <v>138</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167">
         <v>6</v>
@@ -5422,7 +5422,7 @@
         <v>194</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H168">
         <v>15</v>
@@ -5448,7 +5448,7 @@
         <v>135</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H169">
         <v>6</v>
@@ -5474,7 +5474,7 @@
         <v>135</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H170">
         <v>5</v>
@@ -5500,7 +5500,7 @@
         <v>136</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H171">
         <v>5</v>
@@ -5526,7 +5526,7 @@
         <v>136</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H172">
         <v>6</v>
@@ -5552,7 +5552,7 @@
         <v>134</v>
       </c>
       <c r="G173">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H173">
         <v>8</v>
@@ -5578,7 +5578,7 @@
         <v>134</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174">
         <v>10</v>
@@ -5604,7 +5604,7 @@
         <v>134</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H175">
         <v>6</v>
@@ -5630,7 +5630,7 @@
         <v>134</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176">
         <v>5</v>
@@ -5656,7 +5656,7 @@
         <v>137</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177">
         <v>4</v>
@@ -5682,7 +5682,7 @@
         <v>137</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178">
         <v>5</v>
@@ -5708,7 +5708,7 @@
         <v>137</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179">
         <v>8</v>
@@ -5734,7 +5734,7 @@
         <v>174</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H180">
         <v>16</v>
@@ -5760,7 +5760,7 @@
         <v>174</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H181">
         <v>14</v>
@@ -5786,7 +5786,7 @@
         <v>174</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182">
         <v>12</v>
@@ -5812,7 +5812,7 @@
         <v>174</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
         <v>18</v>
@@ -5838,7 +5838,7 @@
         <v>167</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H184">
         <v>15</v>
@@ -5864,7 +5864,7 @@
         <v>167</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185">
         <v>16</v>
@@ -5890,7 +5890,7 @@
         <v>162</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H186">
         <v>16</v>
@@ -5916,7 +5916,7 @@
         <v>162</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187">
         <v>18</v>
@@ -5942,7 +5942,7 @@
         <v>139</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188">
         <v>16</v>
@@ -5968,7 +5968,7 @@
         <v>139</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189">
         <v>10</v>
@@ -5994,7 +5994,7 @@
         <v>139</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190">
         <v>8</v>
@@ -6020,7 +6020,7 @@
         <v>139</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191">
         <v>14</v>
@@ -6046,7 +6046,7 @@
         <v>156</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H192">
         <v>28</v>
@@ -6072,7 +6072,7 @@
         <v>156</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193">
         <v>14</v>
@@ -6098,7 +6098,7 @@
         <v>156</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>18</v>
@@ -6124,7 +6124,7 @@
         <v>156</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H195">
         <v>21</v>
@@ -6150,7 +6150,7 @@
         <v>195</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H196">
         <v>14</v>
@@ -6176,7 +6176,7 @@
         <v>173</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>7</v>
@@ -6202,7 +6202,7 @@
         <v>173</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198">
         <v>10</v>
@@ -6228,7 +6228,7 @@
         <v>173</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199">
         <v>12</v>
@@ -6254,7 +6254,7 @@
         <v>173</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200">
         <v>8</v>
@@ -6280,7 +6280,7 @@
         <v>144</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -6306,7 +6306,7 @@
         <v>152</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H202">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>141</v>
       </c>
       <c r="G203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H203">
         <v>10</v>
@@ -6358,7 +6358,7 @@
         <v>141</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204">
         <v>8</v>
@@ -6384,7 +6384,7 @@
         <v>141</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205">
         <v>6</v>
@@ -6410,7 +6410,7 @@
         <v>141</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -6436,7 +6436,7 @@
         <v>145</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -6462,7 +6462,7 @@
         <v>164</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208">
         <v>4</v>
@@ -6488,7 +6488,7 @@
         <v>164</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209">
         <v>6</v>
@@ -6514,7 +6514,7 @@
         <v>164</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210">
         <v>21</v>
@@ -6540,7 +6540,7 @@
         <v>140</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H211">
         <v>14</v>
@@ -6566,7 +6566,7 @@
         <v>140</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
         <v>16</v>
@@ -6592,7 +6592,7 @@
         <v>196</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
         <v>16</v>
@@ -6618,7 +6618,7 @@
         <v>165</v>
       </c>
       <c r="G214">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H214">
         <v>8</v>
@@ -6644,7 +6644,7 @@
         <v>165</v>
       </c>
       <c r="G215">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H215">
         <v>6</v>
@@ -6670,7 +6670,7 @@
         <v>165</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H216">
         <v>8</v>
@@ -6696,7 +6696,7 @@
         <v>165</v>
       </c>
       <c r="G217">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H217">
         <v>6</v>
@@ -6722,7 +6722,7 @@
         <v>186</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218">
         <v>17</v>
@@ -6748,7 +6748,7 @@
         <v>186</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219">
         <v>19</v>
@@ -6774,7 +6774,7 @@
         <v>151</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220">
         <v>23</v>
@@ -6800,7 +6800,7 @@
         <v>151</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221">
         <v>18</v>
@@ -6826,7 +6826,7 @@
         <v>151</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H222">
         <v>16</v>
@@ -6852,7 +6852,7 @@
         <v>143</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H223">
         <v>22</v>
@@ -6878,7 +6878,7 @@
         <v>197</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224">
         <v>18</v>
@@ -6904,7 +6904,7 @@
         <v>197</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225">
         <v>26</v>
@@ -6930,7 +6930,7 @@
         <v>198</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226">
         <v>23</v>
@@ -6956,7 +6956,7 @@
         <v>199</v>
       </c>
       <c r="G227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H227">
         <v>25</v>
@@ -6982,7 +6982,7 @@
         <v>200</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228">
         <v>30</v>
@@ -7008,7 +7008,7 @@
         <v>201</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
         <v>27</v>
@@ -7034,7 +7034,7 @@
         <v>202</v>
       </c>
       <c r="G230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H230">
         <v>15</v>
@@ -7060,7 +7060,7 @@
         <v>202</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231">
         <v>14</v>
@@ -7086,7 +7086,7 @@
         <v>182</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H232">
         <v>14</v>
@@ -7112,7 +7112,7 @@
         <v>163</v>
       </c>
       <c r="G233">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H233">
         <v>3</v>
@@ -7138,7 +7138,7 @@
         <v>163</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -7164,7 +7164,7 @@
         <v>166</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235">
         <v>133</v>
@@ -7190,7 +7190,7 @@
         <v>166</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H236">
         <v>3</v>
@@ -7216,7 +7216,7 @@
         <v>166</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H237">
         <v>4</v>
@@ -7242,7 +7242,7 @@
         <v>166</v>
       </c>
       <c r="G238">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H238">
         <v>5</v>
@@ -7268,7 +7268,7 @@
         <v>152</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H239">
         <v>6</v>
@@ -7294,7 +7294,7 @@
         <v>203</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240">
         <v>212</v>
@@ -7320,7 +7320,7 @@
         <v>179</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241">
         <v>34</v>
@@ -7346,7 +7346,7 @@
         <v>204</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242">
         <v>18</v>
@@ -7372,7 +7372,7 @@
         <v>204</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H243">
         <v>19</v>
@@ -7398,7 +7398,7 @@
         <v>205</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244">
         <v>17</v>
@@ -7424,7 +7424,7 @@
         <v>206</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H245">
         <v>5</v>
@@ -7450,7 +7450,7 @@
         <v>146</v>
       </c>
       <c r="G246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H246">
         <v>22</v>
@@ -7476,7 +7476,7 @@
         <v>207</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247">
         <v>4</v>
@@ -7502,7 +7502,7 @@
         <v>170</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H248">
         <v>4</v>
@@ -7528,7 +7528,7 @@
         <v>208</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H249">
         <v>8</v>
@@ -7554,7 +7554,7 @@
         <v>148</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250">
         <v>12</v>
@@ -7580,7 +7580,7 @@
         <v>148</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H251">
         <v>16</v>
@@ -7606,7 +7606,7 @@
         <v>148</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
         <v>13</v>
@@ -7632,7 +7632,7 @@
         <v>209</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253">
         <v>5</v>
@@ -7658,7 +7658,7 @@
         <v>210</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H254">
         <v>18</v>
@@ -7684,7 +7684,7 @@
         <v>183</v>
       </c>
       <c r="G255">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H255">
         <v>8</v>
@@ -7710,7 +7710,7 @@
         <v>183</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256">
         <v>10</v>
@@ -7736,7 +7736,7 @@
         <v>183</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257">
         <v>12</v>
@@ -7762,7 +7762,7 @@
         <v>184</v>
       </c>
       <c r="G258">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H258">
         <v>6</v>
@@ -7788,7 +7788,7 @@
         <v>184</v>
       </c>
       <c r="G259">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H259">
         <v>4</v>
@@ -7814,7 +7814,7 @@
         <v>184</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H260">
         <v>5</v>
@@ -7840,7 +7840,7 @@
         <v>185</v>
       </c>
       <c r="G261">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H261">
         <v>3</v>
@@ -7866,7 +7866,7 @@
         <v>152</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H262">
         <v>4</v>
@@ -7892,7 +7892,7 @@
         <v>211</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263">
         <v>4</v>
@@ -7918,7 +7918,7 @@
         <v>161</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264">
         <v>16</v>
@@ -7944,7 +7944,7 @@
         <v>190</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265">
         <v>7</v>
@@ -7970,7 +7970,7 @@
         <v>212</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266">
         <v>21</v>
@@ -7996,7 +7996,7 @@
         <v>160</v>
       </c>
       <c r="G267">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -8022,7 +8022,7 @@
         <v>213</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268">
         <v>5</v>
@@ -8048,7 +8048,7 @@
         <v>168</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269">
         <v>12</v>
@@ -8074,7 +8074,7 @@
         <v>203</v>
       </c>
       <c r="G270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H270">
         <v>12</v>
@@ -8100,7 +8100,7 @@
         <v>203</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271">
         <v>5</v>
@@ -8126,7 +8126,7 @@
         <v>203</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272">
         <v>8</v>
@@ -8152,7 +8152,7 @@
         <v>203</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273">
         <v>17</v>
@@ -8178,7 +8178,7 @@
         <v>214</v>
       </c>
       <c r="G274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274">
         <v>18</v>
@@ -8204,7 +8204,7 @@
         <v>191</v>
       </c>
       <c r="G275">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H275">
         <v>8</v>
@@ -8230,7 +8230,7 @@
         <v>191</v>
       </c>
       <c r="G276">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H276">
         <v>10</v>
@@ -8256,7 +8256,7 @@
         <v>191</v>
       </c>
       <c r="G277">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H277">
         <v>12</v>
@@ -8282,7 +8282,7 @@
         <v>142</v>
       </c>
       <c r="G278">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H278">
         <v>18</v>
@@ -8308,7 +8308,7 @@
         <v>142</v>
       </c>
       <c r="G279">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H279">
         <v>20</v>
@@ -8334,7 +8334,7 @@
         <v>142</v>
       </c>
       <c r="G280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H280">
         <v>12</v>
@@ -8360,7 +8360,7 @@
         <v>150</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281">
         <v>7</v>
@@ -8386,7 +8386,7 @@
         <v>135</v>
       </c>
       <c r="G282">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H282">
         <v>6</v>
@@ -8412,7 +8412,7 @@
         <v>135</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H283">
         <v>7</v>
@@ -8438,7 +8438,7 @@
         <v>135</v>
       </c>
       <c r="G284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H284">
         <v>4</v>
@@ -8464,7 +8464,7 @@
         <v>135</v>
       </c>
       <c r="G285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -8490,7 +8490,7 @@
         <v>131</v>
       </c>
       <c r="G286">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="H286">
         <v>3</v>
@@ -8516,7 +8516,7 @@
         <v>132</v>
       </c>
       <c r="G287">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H287">
         <v>4</v>
@@ -8542,7 +8542,7 @@
         <v>132</v>
       </c>
       <c r="G288">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H288">
         <v>3</v>
@@ -8568,7 +8568,7 @@
         <v>133</v>
       </c>
       <c r="G289">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H289">
         <v>10</v>
@@ -8594,7 +8594,7 @@
         <v>133</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290">
         <v>11</v>
@@ -8620,7 +8620,7 @@
         <v>215</v>
       </c>
       <c r="G291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H291">
         <v>16</v>
@@ -8646,7 +8646,7 @@
         <v>139</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292">
         <v>18</v>
@@ -8672,7 +8672,7 @@
         <v>139</v>
       </c>
       <c r="G293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H293">
         <v>14</v>
@@ -8698,7 +8698,7 @@
         <v>139</v>
       </c>
       <c r="G294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H294">
         <v>20</v>
@@ -8724,7 +8724,7 @@
         <v>143</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H295">
         <v>20</v>
@@ -8750,7 +8750,7 @@
         <v>143</v>
       </c>
       <c r="G296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H296">
         <v>18</v>
@@ -8776,7 +8776,7 @@
         <v>151</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297">
         <v>24</v>
@@ -8802,7 +8802,7 @@
         <v>194</v>
       </c>
       <c r="G298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298">
         <v>15</v>
@@ -8828,7 +8828,7 @@
         <v>152</v>
       </c>
       <c r="G299">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H299">
         <v>15</v>
@@ -8854,7 +8854,7 @@
         <v>152</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300">
         <v>14</v>
@@ -8880,7 +8880,7 @@
         <v>148</v>
       </c>
       <c r="G301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H301">
         <v>13</v>
@@ -8906,7 +8906,7 @@
         <v>134</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302">
         <v>6</v>
@@ -8932,7 +8932,7 @@
         <v>134</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303">
         <v>7</v>
@@ -8958,7 +8958,7 @@
         <v>137</v>
       </c>
       <c r="G304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H304">
         <v>8</v>
@@ -8984,7 +8984,7 @@
         <v>137</v>
       </c>
       <c r="G305">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H305">
         <v>6</v>
@@ -9010,7 +9010,7 @@
         <v>156</v>
       </c>
       <c r="G306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H306">
         <v>20</v>
@@ -9036,7 +9036,7 @@
         <v>156</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307">
         <v>18</v>
@@ -9062,7 +9062,7 @@
         <v>156</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308">
         <v>22</v>
@@ -9088,7 +9088,7 @@
         <v>156</v>
       </c>
       <c r="G309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309">
         <v>16</v>
@@ -9114,7 +9114,7 @@
         <v>216</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H310">
         <v>22</v>
@@ -9140,7 +9140,7 @@
         <v>140</v>
       </c>
       <c r="G311">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H311">
         <v>14</v>
@@ -9166,7 +9166,7 @@
         <v>140</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H312">
         <v>16</v>
@@ -9192,7 +9192,7 @@
         <v>138</v>
       </c>
       <c r="G313">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H313">
         <v>8</v>
@@ -9218,7 +9218,7 @@
         <v>138</v>
       </c>
       <c r="G314">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H314">
         <v>6</v>
@@ -9244,7 +9244,7 @@
         <v>138</v>
       </c>
       <c r="G315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315">
         <v>4</v>
@@ -9270,7 +9270,7 @@
         <v>217</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316">
         <v>4</v>
@@ -9296,7 +9296,7 @@
         <v>217</v>
       </c>
       <c r="G317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H317">
         <v>5</v>
@@ -9322,7 +9322,7 @@
         <v>174</v>
       </c>
       <c r="G318">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H318">
         <v>14</v>
@@ -9348,7 +9348,7 @@
         <v>174</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H319">
         <v>16</v>
@@ -9374,7 +9374,7 @@
         <v>147</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320">
         <v>14</v>
@@ -9400,7 +9400,7 @@
         <v>147</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321">
         <v>12</v>
@@ -9426,7 +9426,7 @@
         <v>198</v>
       </c>
       <c r="G322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H322">
         <v>30</v>
@@ -9452,7 +9452,7 @@
         <v>198</v>
       </c>
       <c r="G323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H323">
         <v>36</v>
@@ -9478,7 +9478,7 @@
         <v>136</v>
       </c>
       <c r="G324">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H324">
         <v>6</v>
@@ -9504,7 +9504,7 @@
         <v>136</v>
       </c>
       <c r="G325">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H325">
         <v>5</v>
@@ -9530,7 +9530,7 @@
         <v>136</v>
       </c>
       <c r="G326">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H326">
         <v>4</v>
@@ -9556,7 +9556,7 @@
         <v>157</v>
       </c>
       <c r="G327">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H327">
         <v>3</v>
@@ -9582,7 +9582,7 @@
         <v>157</v>
       </c>
       <c r="G328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>157</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H329">
         <v>4</v>
@@ -9634,7 +9634,7 @@
         <v>147</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H330">
         <v>16</v>
@@ -9660,7 +9660,7 @@
         <v>201</v>
       </c>
       <c r="G331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331">
         <v>26</v>
@@ -9686,7 +9686,7 @@
         <v>201</v>
       </c>
       <c r="G332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H332">
         <v>28</v>
@@ -9712,7 +9712,7 @@
         <v>160</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333">
         <v>5</v>
@@ -9738,7 +9738,7 @@
         <v>160</v>
       </c>
       <c r="G334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H334">
         <v>4</v>
@@ -9764,7 +9764,7 @@
         <v>144</v>
       </c>
       <c r="G335">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H335">
         <v>4</v>
@@ -9790,7 +9790,7 @@
         <v>144</v>
       </c>
       <c r="G336">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H336">
         <v>5</v>
@@ -9816,7 +9816,7 @@
         <v>144</v>
       </c>
       <c r="G337">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H337">
         <v>6</v>
@@ -9842,7 +9842,7 @@
         <v>144</v>
       </c>
       <c r="G338">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H338">
         <v>7</v>
@@ -9868,7 +9868,7 @@
         <v>164</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339">
         <v>8</v>
@@ -9894,7 +9894,7 @@
         <v>164</v>
       </c>
       <c r="G340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H340">
         <v>18</v>
@@ -9920,7 +9920,7 @@
         <v>164</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H341">
         <v>16</v>
@@ -9946,7 +9946,7 @@
         <v>164</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H342">
         <v>12</v>
@@ -9972,7 +9972,7 @@
         <v>164</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343">
         <v>14</v>
@@ -9998,7 +9998,7 @@
         <v>164</v>
       </c>
       <c r="G344">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H344">
         <v>22</v>
@@ -10024,7 +10024,7 @@
         <v>164</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H345">
         <v>21</v>
@@ -10050,7 +10050,7 @@
         <v>164</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -10076,7 +10076,7 @@
         <v>167</v>
       </c>
       <c r="G347">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H347">
         <v>15</v>
@@ -10102,7 +10102,7 @@
         <v>145</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H348">
         <v>4</v>
@@ -10128,7 +10128,7 @@
         <v>145</v>
       </c>
       <c r="G349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H349">
         <v>3</v>
@@ -10154,7 +10154,7 @@
         <v>165</v>
       </c>
       <c r="G350">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H350">
         <v>8</v>
@@ -10180,7 +10180,7 @@
         <v>165</v>
       </c>
       <c r="G351">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H351">
         <v>6</v>
@@ -10206,7 +10206,7 @@
         <v>165</v>
       </c>
       <c r="G352">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H352">
         <v>4</v>
@@ -10232,7 +10232,7 @@
         <v>165</v>
       </c>
       <c r="G353">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H353">
         <v>8</v>
@@ -10258,7 +10258,7 @@
         <v>165</v>
       </c>
       <c r="G354">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H354">
         <v>6</v>
@@ -10284,7 +10284,7 @@
         <v>165</v>
       </c>
       <c r="G355">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H355">
         <v>4</v>
@@ -10310,7 +10310,7 @@
         <v>165</v>
       </c>
       <c r="G356">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H356">
         <v>3</v>
@@ -10336,7 +10336,7 @@
         <v>152</v>
       </c>
       <c r="G357">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H357">
         <v>8</v>
@@ -10362,7 +10362,7 @@
         <v>218</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358">
         <v>30</v>
@@ -10388,7 +10388,7 @@
         <v>218</v>
       </c>
       <c r="G359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H359">
         <v>46</v>
@@ -10414,7 +10414,7 @@
         <v>207</v>
       </c>
       <c r="G360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360">
         <v>5</v>
@@ -10440,7 +10440,7 @@
         <v>141</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361">
         <v>3</v>
@@ -10466,7 +10466,7 @@
         <v>161</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H362">
         <v>16</v>
@@ -10492,7 +10492,7 @@
         <v>166</v>
       </c>
       <c r="G363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363">
         <v>17</v>
@@ -10518,7 +10518,7 @@
         <v>166</v>
       </c>
       <c r="G364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364">
         <v>12</v>
@@ -10544,7 +10544,7 @@
         <v>166</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H365">
         <v>13</v>
@@ -10570,7 +10570,7 @@
         <v>166</v>
       </c>
       <c r="G366">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H366">
         <v>15</v>
@@ -10596,7 +10596,7 @@
         <v>166</v>
       </c>
       <c r="G367">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H367">
         <v>7</v>
@@ -10622,7 +10622,7 @@
         <v>166</v>
       </c>
       <c r="G368">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H368">
         <v>16</v>
@@ -10648,7 +10648,7 @@
         <v>166</v>
       </c>
       <c r="G369">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H369">
         <v>4</v>
@@ -10674,7 +10674,7 @@
         <v>166</v>
       </c>
       <c r="G370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H370">
         <v>3</v>
@@ -10700,7 +10700,7 @@
         <v>166</v>
       </c>
       <c r="G371">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H371">
         <v>5</v>
@@ -10726,7 +10726,7 @@
         <v>166</v>
       </c>
       <c r="G372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372">
         <v>4</v>
@@ -10752,7 +10752,7 @@
         <v>173</v>
       </c>
       <c r="G373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H373">
         <v>10</v>
@@ -10778,7 +10778,7 @@
         <v>173</v>
       </c>
       <c r="G374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374">
         <v>8</v>
@@ -10804,7 +10804,7 @@
         <v>159</v>
       </c>
       <c r="G375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375">
         <v>16</v>
@@ -10830,7 +10830,7 @@
         <v>159</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376">
         <v>14</v>
@@ -10856,7 +10856,7 @@
         <v>151</v>
       </c>
       <c r="G377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H377">
         <v>22</v>
@@ -10882,7 +10882,7 @@
         <v>219</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378">
         <v>5</v>
@@ -10908,7 +10908,7 @@
         <v>145</v>
       </c>
       <c r="G379">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H379">
         <v>4</v>
@@ -10934,7 +10934,7 @@
         <v>145</v>
       </c>
       <c r="G380">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H380">
         <v>3</v>
@@ -10960,7 +10960,7 @@
         <v>145</v>
       </c>
       <c r="G381">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H381">
         <v>5</v>
@@ -10986,7 +10986,7 @@
         <v>163</v>
       </c>
       <c r="G382">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H382">
         <v>3</v>
@@ -11012,7 +11012,7 @@
         <v>163</v>
       </c>
       <c r="G383">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H383">
         <v>4</v>
@@ -11038,7 +11038,7 @@
         <v>149</v>
       </c>
       <c r="G384">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H384">
         <v>13</v>
@@ -11064,7 +11064,7 @@
         <v>182</v>
       </c>
       <c r="G385">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H385">
         <v>16</v>
@@ -11090,7 +11090,7 @@
         <v>170</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H386">
         <v>7</v>
@@ -11116,7 +11116,7 @@
         <v>188</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H387">
         <v>8</v>
@@ -11142,7 +11142,7 @@
         <v>188</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388">
         <v>12</v>
@@ -11168,7 +11168,7 @@
         <v>176</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389">
         <v>13</v>
@@ -11194,7 +11194,7 @@
         <v>220</v>
       </c>
       <c r="G390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H390">
         <v>5</v>
@@ -11220,7 +11220,7 @@
         <v>220</v>
       </c>
       <c r="G391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H391">
         <v>6</v>
@@ -11246,7 +11246,7 @@
         <v>202</v>
       </c>
       <c r="G392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392">
         <v>16</v>
@@ -11272,7 +11272,7 @@
         <v>183</v>
       </c>
       <c r="G393">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H393">
         <v>6</v>
@@ -11298,7 +11298,7 @@
         <v>183</v>
       </c>
       <c r="G394">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H394">
         <v>8</v>
@@ -11324,7 +11324,7 @@
         <v>183</v>
       </c>
       <c r="G395">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H395">
         <v>10</v>
@@ -11350,7 +11350,7 @@
         <v>183</v>
       </c>
       <c r="G396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H396">
         <v>12</v>
@@ -11376,7 +11376,7 @@
         <v>184</v>
       </c>
       <c r="G397">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H397">
         <v>6</v>
@@ -11402,7 +11402,7 @@
         <v>184</v>
       </c>
       <c r="G398">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H398">
         <v>4</v>
@@ -11428,7 +11428,7 @@
         <v>184</v>
       </c>
       <c r="G399">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H399">
         <v>5</v>
@@ -11454,7 +11454,7 @@
         <v>185</v>
       </c>
       <c r="G400">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H400">
         <v>3</v>
@@ -11480,7 +11480,7 @@
         <v>185</v>
       </c>
       <c r="G401">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H401">
         <v>2</v>
@@ -11506,7 +11506,7 @@
         <v>185</v>
       </c>
       <c r="G402">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H402">
         <v>4</v>
@@ -11532,7 +11532,7 @@
         <v>185</v>
       </c>
       <c r="G403">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H403">
         <v>3</v>
@@ -11558,7 +11558,7 @@
         <v>216</v>
       </c>
       <c r="G404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404">
         <v>2</v>
@@ -11584,7 +11584,7 @@
         <v>152</v>
       </c>
       <c r="G405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H405">
         <v>3</v>
@@ -11610,7 +11610,7 @@
         <v>172</v>
       </c>
       <c r="G406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H406">
         <v>2</v>
@@ -11636,7 +11636,7 @@
         <v>175</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H407">
         <v>16</v>
@@ -11662,7 +11662,7 @@
         <v>148</v>
       </c>
       <c r="G408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H408">
         <v>5</v>
@@ -11688,7 +11688,7 @@
         <v>190</v>
       </c>
       <c r="G409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H409">
         <v>8</v>
@@ -11714,7 +11714,7 @@
         <v>221</v>
       </c>
       <c r="G410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410">
         <v>20</v>
@@ -11740,7 +11740,7 @@
         <v>191</v>
       </c>
       <c r="G411">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H411">
         <v>6</v>
@@ -11766,7 +11766,7 @@
         <v>191</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H412">
         <v>8</v>
@@ -11792,7 +11792,7 @@
         <v>191</v>
       </c>
       <c r="G413">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H413">
         <v>10</v>
@@ -11818,7 +11818,7 @@
         <v>191</v>
       </c>
       <c r="G414">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H414">
         <v>12</v>
@@ -11844,7 +11844,7 @@
         <v>131</v>
       </c>
       <c r="G415">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="H415">
         <v>3</v>
@@ -11870,7 +11870,7 @@
         <v>131</v>
       </c>
       <c r="G416">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H416">
         <v>2</v>
@@ -11896,7 +11896,7 @@
         <v>131</v>
       </c>
       <c r="G417">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H417">
         <v>3</v>
@@ -11922,7 +11922,7 @@
         <v>222</v>
       </c>
       <c r="G418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H418">
         <v>20</v>
@@ -11948,7 +11948,7 @@
         <v>162</v>
       </c>
       <c r="G419">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H419">
         <v>18</v>
@@ -11974,7 +11974,7 @@
         <v>162</v>
       </c>
       <c r="G420">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H420">
         <v>20</v>
@@ -12000,7 +12000,7 @@
         <v>143</v>
       </c>
       <c r="G421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H421">
         <v>23</v>
@@ -12026,7 +12026,7 @@
         <v>143</v>
       </c>
       <c r="G422">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H422">
         <v>21</v>
@@ -12052,7 +12052,7 @@
         <v>143</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H423">
         <v>18</v>
@@ -12078,7 +12078,7 @@
         <v>147</v>
       </c>
       <c r="G424">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H424">
         <v>10</v>
@@ -12104,7 +12104,7 @@
         <v>147</v>
       </c>
       <c r="G425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H425">
         <v>5</v>
@@ -12130,7 +12130,7 @@
         <v>147</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426">
         <v>3</v>
@@ -12156,7 +12156,7 @@
         <v>147</v>
       </c>
       <c r="G427">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H427">
         <v>18</v>
@@ -12182,7 +12182,7 @@
         <v>147</v>
       </c>
       <c r="G428">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H428">
         <v>16</v>
@@ -12208,7 +12208,7 @@
         <v>147</v>
       </c>
       <c r="G429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H429">
         <v>8</v>
@@ -12234,7 +12234,7 @@
         <v>147</v>
       </c>
       <c r="G430">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H430">
         <v>10</v>
@@ -12260,7 +12260,7 @@
         <v>140</v>
       </c>
       <c r="G431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H431">
         <v>3</v>
@@ -12286,7 +12286,7 @@
         <v>158</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H432">
         <v>18</v>
@@ -12312,7 +12312,7 @@
         <v>172</v>
       </c>
       <c r="G433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H433">
         <v>16</v>
@@ -12338,7 +12338,7 @@
         <v>172</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H434">
         <v>20</v>
@@ -12364,7 +12364,7 @@
         <v>172</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H435">
         <v>10</v>
@@ -12390,7 +12390,7 @@
         <v>156</v>
       </c>
       <c r="G436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H436">
         <v>20</v>
@@ -12416,7 +12416,7 @@
         <v>167</v>
       </c>
       <c r="G437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H437">
         <v>16</v>
@@ -12442,7 +12442,7 @@
         <v>167</v>
       </c>
       <c r="G438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H438">
         <v>14</v>
@@ -12468,7 +12468,7 @@
         <v>132</v>
       </c>
       <c r="G439">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H439">
         <v>3</v>
@@ -12494,7 +12494,7 @@
         <v>132</v>
       </c>
       <c r="G440">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H440">
         <v>4</v>
@@ -12520,7 +12520,7 @@
         <v>132</v>
       </c>
       <c r="G441">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H441">
         <v>2</v>
@@ -12546,7 +12546,7 @@
         <v>174</v>
       </c>
       <c r="G442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H442">
         <v>18</v>
@@ -12572,7 +12572,7 @@
         <v>174</v>
       </c>
       <c r="G443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H443">
         <v>16</v>
@@ -12598,7 +12598,7 @@
         <v>134</v>
       </c>
       <c r="G444">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H444">
         <v>5</v>
@@ -12624,7 +12624,7 @@
         <v>134</v>
       </c>
       <c r="G445">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H445">
         <v>6</v>
@@ -12650,7 +12650,7 @@
         <v>134</v>
       </c>
       <c r="G446">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H446">
         <v>8</v>
@@ -12676,7 +12676,7 @@
         <v>134</v>
       </c>
       <c r="G447">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H447">
         <v>4</v>
@@ -12702,7 +12702,7 @@
         <v>137</v>
       </c>
       <c r="G448">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H448">
         <v>6</v>
@@ -12728,7 +12728,7 @@
         <v>137</v>
       </c>
       <c r="G449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H449">
         <v>8</v>
@@ -12754,7 +12754,7 @@
         <v>137</v>
       </c>
       <c r="G450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450">
         <v>7</v>
@@ -12780,7 +12780,7 @@
         <v>137</v>
       </c>
       <c r="G451">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H451">
         <v>4</v>
@@ -12806,7 +12806,7 @@
         <v>160</v>
       </c>
       <c r="G452">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H452">
         <v>4</v>
@@ -12832,7 +12832,7 @@
         <v>141</v>
       </c>
       <c r="G453">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H453">
         <v>4</v>
@@ -12858,7 +12858,7 @@
         <v>141</v>
       </c>
       <c r="G454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H454">
         <v>10</v>
@@ -12884,7 +12884,7 @@
         <v>141</v>
       </c>
       <c r="G455">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H455">
         <v>5</v>
@@ -12910,7 +12910,7 @@
         <v>136</v>
       </c>
       <c r="G456">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H456">
         <v>5</v>
@@ -12936,7 +12936,7 @@
         <v>136</v>
       </c>
       <c r="G457">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H457">
         <v>6</v>
@@ -12962,7 +12962,7 @@
         <v>136</v>
       </c>
       <c r="G458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H458">
         <v>7</v>
@@ -12988,7 +12988,7 @@
         <v>135</v>
       </c>
       <c r="G459">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H459">
         <v>4</v>
@@ -13014,7 +13014,7 @@
         <v>135</v>
       </c>
       <c r="G460">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H460">
         <v>5</v>
@@ -13040,7 +13040,7 @@
         <v>135</v>
       </c>
       <c r="G461">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H461">
         <v>6</v>
@@ -13066,7 +13066,7 @@
         <v>151</v>
       </c>
       <c r="G462">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H462">
         <v>18</v>
@@ -13092,7 +13092,7 @@
         <v>151</v>
       </c>
       <c r="G463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H463">
         <v>20</v>
@@ -13118,7 +13118,7 @@
         <v>139</v>
       </c>
       <c r="G464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H464">
         <v>16</v>
@@ -13144,7 +13144,7 @@
         <v>139</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H465">
         <v>18</v>
@@ -13170,7 +13170,7 @@
         <v>157</v>
       </c>
       <c r="G466">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H466">
         <v>3</v>
@@ -13196,7 +13196,7 @@
         <v>157</v>
       </c>
       <c r="G467">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H467">
         <v>2</v>
@@ -13222,7 +13222,7 @@
         <v>193</v>
       </c>
       <c r="G468">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H468">
         <v>3</v>
@@ -13248,7 +13248,7 @@
         <v>223</v>
       </c>
       <c r="G469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H469">
         <v>10</v>
@@ -13274,7 +13274,7 @@
         <v>203</v>
       </c>
       <c r="G470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H470">
         <v>12</v>
@@ -13300,7 +13300,7 @@
         <v>186</v>
       </c>
       <c r="G471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H471">
         <v>23</v>
@@ -13326,7 +13326,7 @@
         <v>186</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472">
         <v>17</v>
@@ -13352,7 +13352,7 @@
         <v>142</v>
       </c>
       <c r="G473">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H473">
         <v>20</v>
@@ -13378,7 +13378,7 @@
         <v>142</v>
       </c>
       <c r="G474">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H474">
         <v>23</v>
@@ -13404,7 +13404,7 @@
         <v>138</v>
       </c>
       <c r="G475">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H475">
         <v>8</v>
@@ -13430,7 +13430,7 @@
         <v>138</v>
       </c>
       <c r="G476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H476">
         <v>6</v>
@@ -13456,7 +13456,7 @@
         <v>144</v>
       </c>
       <c r="G477">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H477">
         <v>8</v>
@@ -13482,7 +13482,7 @@
         <v>144</v>
       </c>
       <c r="G478">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H478">
         <v>6</v>
@@ -13508,7 +13508,7 @@
         <v>144</v>
       </c>
       <c r="G479">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H479">
         <v>4</v>
@@ -13534,7 +13534,7 @@
         <v>144</v>
       </c>
       <c r="G480">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H480">
         <v>5</v>
@@ -13560,7 +13560,7 @@
         <v>194</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481">
         <v>14</v>
@@ -13586,7 +13586,7 @@
         <v>164</v>
       </c>
       <c r="G482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H482">
         <v>6</v>
@@ -13612,7 +13612,7 @@
         <v>164</v>
       </c>
       <c r="G483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H483">
         <v>8</v>
@@ -13638,7 +13638,7 @@
         <v>169</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H484">
         <v>16</v>
@@ -13664,7 +13664,7 @@
         <v>152</v>
       </c>
       <c r="G485">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H485">
         <v>6</v>
@@ -13690,7 +13690,7 @@
         <v>152</v>
       </c>
       <c r="G486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H486">
         <v>8</v>
@@ -13716,7 +13716,7 @@
         <v>152</v>
       </c>
       <c r="G487">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H487">
         <v>10</v>
@@ -13742,7 +13742,7 @@
         <v>152</v>
       </c>
       <c r="G488">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H488">
         <v>3</v>
@@ -13768,7 +13768,7 @@
         <v>152</v>
       </c>
       <c r="G489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H489">
         <v>4</v>
@@ -13794,7 +13794,7 @@
         <v>216</v>
       </c>
       <c r="G490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490">
         <v>16</v>
@@ -13820,7 +13820,7 @@
         <v>201</v>
       </c>
       <c r="G491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H491">
         <v>26</v>
@@ -13846,7 +13846,7 @@
         <v>171</v>
       </c>
       <c r="G492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H492">
         <v>13</v>
@@ -13872,7 +13872,7 @@
         <v>165</v>
       </c>
       <c r="G493">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H493">
         <v>7</v>
@@ -13898,7 +13898,7 @@
         <v>165</v>
       </c>
       <c r="G494">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H494">
         <v>8</v>
@@ -13924,7 +13924,7 @@
         <v>165</v>
       </c>
       <c r="G495">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H495">
         <v>6</v>
@@ -13950,7 +13950,7 @@
         <v>207</v>
       </c>
       <c r="G496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H496">
         <v>5</v>
@@ -13976,7 +13976,7 @@
         <v>174</v>
       </c>
       <c r="G497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H497">
         <v>15</v>
@@ -14002,7 +14002,7 @@
         <v>145</v>
       </c>
       <c r="G498">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H498">
         <v>4</v>
@@ -14028,7 +14028,7 @@
         <v>145</v>
       </c>
       <c r="G499">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H499">
         <v>3</v>
@@ -14054,7 +14054,7 @@
         <v>145</v>
       </c>
       <c r="G500">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H500">
         <v>2</v>
@@ -14080,7 +14080,7 @@
         <v>145</v>
       </c>
       <c r="G501">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H501">
         <v>5</v>
@@ -14106,7 +14106,7 @@
         <v>133</v>
       </c>
       <c r="G502">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H502">
         <v>12</v>
@@ -14132,7 +14132,7 @@
         <v>133</v>
       </c>
       <c r="G503">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H503">
         <v>16</v>
@@ -14158,7 +14158,7 @@
         <v>136</v>
       </c>
       <c r="G504">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H504">
         <v>6</v>
@@ -14184,7 +14184,7 @@
         <v>139</v>
       </c>
       <c r="G505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H505">
         <v>16</v>
@@ -14210,7 +14210,7 @@
         <v>224</v>
       </c>
       <c r="G506">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H506">
         <v>15</v>
@@ -14236,7 +14236,7 @@
         <v>182</v>
       </c>
       <c r="G507">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H507">
         <v>14</v>
@@ -14262,7 +14262,7 @@
         <v>211</v>
       </c>
       <c r="G508">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H508">
         <v>4</v>
@@ -14288,7 +14288,7 @@
         <v>204</v>
       </c>
       <c r="G509">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H509">
         <v>18</v>
@@ -14314,7 +14314,7 @@
         <v>204</v>
       </c>
       <c r="G510">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H510">
         <v>17</v>
@@ -14340,7 +14340,7 @@
         <v>156</v>
       </c>
       <c r="G511">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H511">
         <v>18</v>
@@ -14366,7 +14366,7 @@
         <v>156</v>
       </c>
       <c r="G512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H512">
         <v>22</v>
@@ -14392,7 +14392,7 @@
         <v>156</v>
       </c>
       <c r="G513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H513">
         <v>27</v>
@@ -14418,7 +14418,7 @@
         <v>225</v>
       </c>
       <c r="G514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H514">
         <v>15</v>
@@ -14444,7 +14444,7 @@
         <v>159</v>
       </c>
       <c r="G515">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H515">
         <v>17</v>
@@ -14470,7 +14470,7 @@
         <v>194</v>
       </c>
       <c r="G516">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H516">
         <v>14</v>
@@ -14496,7 +14496,7 @@
         <v>163</v>
       </c>
       <c r="G517">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H517">
         <v>3</v>
@@ -14522,7 +14522,7 @@
         <v>166</v>
       </c>
       <c r="G518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H518">
         <v>10</v>
@@ -14548,7 +14548,7 @@
         <v>166</v>
       </c>
       <c r="G519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H519">
         <v>11</v>
@@ -14574,7 +14574,7 @@
         <v>166</v>
       </c>
       <c r="G520">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H520">
         <v>5</v>
@@ -14600,7 +14600,7 @@
         <v>166</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H521">
         <v>4</v>
@@ -14626,7 +14626,7 @@
         <v>164</v>
       </c>
       <c r="G522">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H522">
         <v>2</v>
@@ -14652,7 +14652,7 @@
         <v>164</v>
       </c>
       <c r="G523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H523">
         <v>20</v>
@@ -14678,7 +14678,7 @@
         <v>216</v>
       </c>
       <c r="G524">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H524">
         <v>3</v>
@@ -14704,7 +14704,7 @@
         <v>216</v>
       </c>
       <c r="G525">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H525">
         <v>2</v>
@@ -14730,7 +14730,7 @@
         <v>183</v>
       </c>
       <c r="G526">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H526">
         <v>10</v>
@@ -14756,7 +14756,7 @@
         <v>183</v>
       </c>
       <c r="G527">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H527">
         <v>8</v>
@@ -14782,7 +14782,7 @@
         <v>183</v>
       </c>
       <c r="G528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H528">
         <v>5</v>
@@ -14808,7 +14808,7 @@
         <v>183</v>
       </c>
       <c r="G529">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H529">
         <v>6</v>
@@ -14834,7 +14834,7 @@
         <v>184</v>
       </c>
       <c r="G530">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H530">
         <v>6</v>
@@ -14860,7 +14860,7 @@
         <v>184</v>
       </c>
       <c r="G531">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H531">
         <v>4</v>
@@ -14886,7 +14886,7 @@
         <v>184</v>
       </c>
       <c r="G532">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H532">
         <v>7</v>
@@ -14912,7 +14912,7 @@
         <v>184</v>
       </c>
       <c r="G533">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H533">
         <v>5</v>
@@ -14938,7 +14938,7 @@
         <v>226</v>
       </c>
       <c r="G534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H534">
         <v>26</v>
@@ -14964,7 +14964,7 @@
         <v>210</v>
       </c>
       <c r="G535">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H535">
         <v>15</v>
@@ -14990,7 +14990,7 @@
         <v>173</v>
       </c>
       <c r="G536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H536">
         <v>11</v>
@@ -15016,7 +15016,7 @@
         <v>192</v>
       </c>
       <c r="G537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H537">
         <v>6</v>
@@ -15042,7 +15042,7 @@
         <v>141</v>
       </c>
       <c r="G538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H538">
         <v>3</v>
@@ -15068,7 +15068,7 @@
         <v>227</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H539">
         <v>28</v>
@@ -15094,7 +15094,7 @@
         <v>185</v>
       </c>
       <c r="G540">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H540">
         <v>3</v>
@@ -15120,7 +15120,7 @@
         <v>148</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541">
         <v>5</v>
@@ -15146,7 +15146,7 @@
         <v>189</v>
       </c>
       <c r="G542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H542">
         <v>5</v>
@@ -15172,7 +15172,7 @@
         <v>214</v>
       </c>
       <c r="G543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H543">
         <v>17</v>
@@ -15198,7 +15198,7 @@
         <v>214</v>
       </c>
       <c r="G544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H544">
         <v>19</v>
@@ -15224,7 +15224,7 @@
         <v>147</v>
       </c>
       <c r="G545">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H545">
         <v>16</v>
@@ -15250,7 +15250,7 @@
         <v>142</v>
       </c>
       <c r="G546">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H546">
         <v>18</v>
@@ -15276,7 +15276,7 @@
         <v>142</v>
       </c>
       <c r="G547">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H547">
         <v>23</v>
@@ -15302,7 +15302,7 @@
         <v>142</v>
       </c>
       <c r="G548">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H548">
         <v>20</v>
@@ -15328,7 +15328,7 @@
         <v>134</v>
       </c>
       <c r="G549">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H549">
         <v>6</v>
@@ -15354,7 +15354,7 @@
         <v>134</v>
       </c>
       <c r="G550">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H550">
         <v>8</v>
@@ -15380,7 +15380,7 @@
         <v>134</v>
       </c>
       <c r="G551">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H551">
         <v>5</v>
@@ -15406,7 +15406,7 @@
         <v>134</v>
       </c>
       <c r="G552">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H552">
         <v>6</v>
@@ -15432,7 +15432,7 @@
         <v>156</v>
       </c>
       <c r="G553">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H553">
         <v>22</v>
@@ -15458,7 +15458,7 @@
         <v>156</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H554">
         <v>28</v>
@@ -15484,7 +15484,7 @@
         <v>186</v>
       </c>
       <c r="G555">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H555">
         <v>18</v>
@@ -15510,7 +15510,7 @@
         <v>186</v>
       </c>
       <c r="G556">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H556">
         <v>19</v>
@@ -15536,7 +15536,7 @@
         <v>222</v>
       </c>
       <c r="G557">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H557">
         <v>21</v>
@@ -15562,7 +15562,7 @@
         <v>162</v>
       </c>
       <c r="G558">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H558">
         <v>20</v>
@@ -15588,7 +15588,7 @@
         <v>162</v>
       </c>
       <c r="G559">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H559">
         <v>18</v>
@@ -15614,7 +15614,7 @@
         <v>162</v>
       </c>
       <c r="G560">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H560">
         <v>16</v>
@@ -15640,7 +15640,7 @@
         <v>131</v>
       </c>
       <c r="G561">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H561">
         <v>3</v>
@@ -15666,7 +15666,7 @@
         <v>194</v>
       </c>
       <c r="G562">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H562">
         <v>15</v>
@@ -15692,7 +15692,7 @@
         <v>143</v>
       </c>
       <c r="G563">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H563">
         <v>20</v>
@@ -15718,7 +15718,7 @@
         <v>143</v>
       </c>
       <c r="G564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H564">
         <v>22</v>
@@ -15744,7 +15744,7 @@
         <v>146</v>
       </c>
       <c r="G565">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H565">
         <v>18</v>
@@ -15770,7 +15770,7 @@
         <v>146</v>
       </c>
       <c r="G566">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H566">
         <v>16</v>
@@ -15796,7 +15796,7 @@
         <v>159</v>
       </c>
       <c r="G567">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H567">
         <v>17</v>
@@ -15822,7 +15822,7 @@
         <v>138</v>
       </c>
       <c r="G568">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H568">
         <v>6</v>
@@ -15848,7 +15848,7 @@
         <v>138</v>
       </c>
       <c r="G569">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H569">
         <v>8</v>
@@ -15874,7 +15874,7 @@
         <v>139</v>
       </c>
       <c r="G570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H570">
         <v>14</v>
@@ -15900,7 +15900,7 @@
         <v>139</v>
       </c>
       <c r="G571">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H571">
         <v>16</v>
@@ -15926,7 +15926,7 @@
         <v>139</v>
       </c>
       <c r="G572">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H572">
         <v>6</v>
@@ -15952,7 +15952,7 @@
         <v>132</v>
       </c>
       <c r="G573">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="H573">
         <v>3</v>
@@ -15978,7 +15978,7 @@
         <v>164</v>
       </c>
       <c r="G574">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H574">
         <v>17</v>
@@ -16004,7 +16004,7 @@
         <v>164</v>
       </c>
       <c r="G575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H575">
         <v>10</v>
@@ -16030,7 +16030,7 @@
         <v>164</v>
       </c>
       <c r="G576">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H576">
         <v>12</v>
@@ -16056,7 +16056,7 @@
         <v>164</v>
       </c>
       <c r="G577">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H577">
         <v>8</v>
@@ -16082,7 +16082,7 @@
         <v>137</v>
       </c>
       <c r="G578">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H578">
         <v>4</v>
@@ -16108,7 +16108,7 @@
         <v>137</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H579">
         <v>3</v>
@@ -16134,7 +16134,7 @@
         <v>137</v>
       </c>
       <c r="G580">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H580">
         <v>5</v>
@@ -16160,7 +16160,7 @@
         <v>160</v>
       </c>
       <c r="G581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H581">
         <v>5</v>
@@ -16186,7 +16186,7 @@
         <v>160</v>
       </c>
       <c r="G582">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H582">
         <v>4</v>
@@ -16212,7 +16212,7 @@
         <v>193</v>
       </c>
       <c r="G583">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H583">
         <v>2</v>
@@ -16238,7 +16238,7 @@
         <v>157</v>
       </c>
       <c r="G584">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H584">
         <v>3</v>
@@ -16264,7 +16264,7 @@
         <v>157</v>
       </c>
       <c r="G585">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H585">
         <v>2</v>
@@ -16290,7 +16290,7 @@
         <v>198</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H586">
         <v>26</v>
@@ -16316,7 +16316,7 @@
         <v>141</v>
       </c>
       <c r="G587">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H587">
         <v>4</v>
@@ -16342,7 +16342,7 @@
         <v>141</v>
       </c>
       <c r="G588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H588">
         <v>5</v>
@@ -16368,7 +16368,7 @@
         <v>136</v>
       </c>
       <c r="G589">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H589">
         <v>6</v>
@@ -16394,7 +16394,7 @@
         <v>136</v>
       </c>
       <c r="G590">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H590">
         <v>4</v>
@@ -16420,7 +16420,7 @@
         <v>136</v>
       </c>
       <c r="G591">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H591">
         <v>8</v>
@@ -16446,7 +16446,7 @@
         <v>135</v>
       </c>
       <c r="G592">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H592">
         <v>5</v>
@@ -16472,7 +16472,7 @@
         <v>135</v>
       </c>
       <c r="G593">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H593">
         <v>4</v>
@@ -16498,7 +16498,7 @@
         <v>135</v>
       </c>
       <c r="G594">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H594">
         <v>7</v>
@@ -16524,7 +16524,7 @@
         <v>151</v>
       </c>
       <c r="G595">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H595">
         <v>18</v>
@@ -16550,7 +16550,7 @@
         <v>151</v>
       </c>
       <c r="G596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H596">
         <v>20</v>
@@ -16576,7 +16576,7 @@
         <v>144</v>
       </c>
       <c r="G597">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H597">
         <v>3</v>
@@ -16602,7 +16602,7 @@
         <v>144</v>
       </c>
       <c r="G598">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H598">
         <v>4</v>
@@ -16628,7 +16628,7 @@
         <v>152</v>
       </c>
       <c r="G599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H599">
         <v>10</v>
@@ -16654,7 +16654,7 @@
         <v>152</v>
       </c>
       <c r="G600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H600">
         <v>11</v>
@@ -16680,7 +16680,7 @@
         <v>174</v>
       </c>
       <c r="G601">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H601">
         <v>15</v>
@@ -16706,7 +16706,7 @@
         <v>165</v>
       </c>
       <c r="G602">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H602">
         <v>8</v>
@@ -16732,7 +16732,7 @@
         <v>165</v>
       </c>
       <c r="G603">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H603">
         <v>6</v>
@@ -16758,7 +16758,7 @@
         <v>165</v>
       </c>
       <c r="G604">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H604">
         <v>5</v>
@@ -16784,7 +16784,7 @@
         <v>152</v>
       </c>
       <c r="G605">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H605">
         <v>10</v>
@@ -16810,7 +16810,7 @@
         <v>152</v>
       </c>
       <c r="G606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H606">
         <v>11</v>
@@ -16836,7 +16836,7 @@
         <v>152</v>
       </c>
       <c r="G607">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H607">
         <v>14</v>
@@ -16862,7 +16862,7 @@
         <v>216</v>
       </c>
       <c r="G608">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H608">
         <v>12</v>
@@ -16888,7 +16888,7 @@
         <v>203</v>
       </c>
       <c r="G609">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H609">
         <v>9</v>
@@ -16914,7 +16914,7 @@
         <v>147</v>
       </c>
       <c r="G610">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H610">
         <v>8</v>
@@ -16940,7 +16940,7 @@
         <v>147</v>
       </c>
       <c r="G611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H611">
         <v>10</v>
@@ -16966,7 +16966,7 @@
         <v>147</v>
       </c>
       <c r="G612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H612">
         <v>6</v>
@@ -16992,7 +16992,7 @@
         <v>145</v>
       </c>
       <c r="G613">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H613">
         <v>4</v>
@@ -17018,7 +17018,7 @@
         <v>145</v>
       </c>
       <c r="G614">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H614">
         <v>5</v>
@@ -17044,7 +17044,7 @@
         <v>145</v>
       </c>
       <c r="G615">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H615">
         <v>3</v>
@@ -17070,7 +17070,7 @@
         <v>163</v>
       </c>
       <c r="G616">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H616">
         <v>3</v>
@@ -17096,7 +17096,7 @@
         <v>163</v>
       </c>
       <c r="G617">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H617">
         <v>4</v>
@@ -17122,7 +17122,7 @@
         <v>163</v>
       </c>
       <c r="G618">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H618">
         <v>3</v>
@@ -17148,7 +17148,7 @@
         <v>204</v>
       </c>
       <c r="G619">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H619">
         <v>18</v>
@@ -17174,7 +17174,7 @@
         <v>201</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H620">
         <v>25</v>
@@ -17200,7 +17200,7 @@
         <v>182</v>
       </c>
       <c r="G621">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H621">
         <v>14</v>
@@ -17226,7 +17226,7 @@
         <v>166</v>
       </c>
       <c r="G622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H622">
         <v>17</v>
@@ -17252,7 +17252,7 @@
         <v>166</v>
       </c>
       <c r="G623">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H623">
         <v>15</v>
@@ -17278,7 +17278,7 @@
         <v>166</v>
       </c>
       <c r="G624">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H624">
         <v>7</v>
@@ -17304,7 +17304,7 @@
         <v>166</v>
       </c>
       <c r="G625">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625">
         <v>6</v>
@@ -17330,7 +17330,7 @@
         <v>225</v>
       </c>
       <c r="G626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H626">
         <v>16</v>
@@ -17356,7 +17356,7 @@
         <v>170</v>
       </c>
       <c r="G627">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H627">
         <v>6</v>
@@ -17382,7 +17382,7 @@
         <v>228</v>
       </c>
       <c r="G628">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H628">
         <v>16</v>
@@ -17408,7 +17408,7 @@
         <v>183</v>
       </c>
       <c r="G629">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H629">
         <v>6</v>
@@ -17434,7 +17434,7 @@
         <v>183</v>
       </c>
       <c r="G630">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H630">
         <v>8</v>
@@ -17460,7 +17460,7 @@
         <v>183</v>
       </c>
       <c r="G631">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H631">
         <v>10</v>
@@ -17486,7 +17486,7 @@
         <v>183</v>
       </c>
       <c r="G632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H632">
         <v>5</v>
@@ -17512,7 +17512,7 @@
         <v>183</v>
       </c>
       <c r="G633">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H633">
         <v>9</v>
@@ -17538,7 +17538,7 @@
         <v>184</v>
       </c>
       <c r="G634">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H634">
         <v>5</v>
@@ -17564,7 +17564,7 @@
         <v>184</v>
       </c>
       <c r="G635">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H635">
         <v>4</v>
@@ -17590,7 +17590,7 @@
         <v>184</v>
       </c>
       <c r="G636">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H636">
         <v>6</v>
@@ -17616,7 +17616,7 @@
         <v>185</v>
       </c>
       <c r="G637">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H637">
         <v>3</v>
@@ -17642,7 +17642,7 @@
         <v>185</v>
       </c>
       <c r="G638">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H638">
         <v>2</v>
@@ -17668,7 +17668,7 @@
         <v>185</v>
       </c>
       <c r="G639">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H639">
         <v>3</v>
@@ -17694,7 +17694,7 @@
         <v>185</v>
       </c>
       <c r="G640">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H640">
         <v>4</v>
@@ -17720,7 +17720,7 @@
         <v>224</v>
       </c>
       <c r="G641">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H641">
         <v>15</v>
@@ -17746,7 +17746,7 @@
         <v>189</v>
       </c>
       <c r="G642">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H642">
         <v>6</v>
@@ -17772,7 +17772,7 @@
         <v>151</v>
       </c>
       <c r="G643">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H643">
         <v>23</v>
@@ -17798,7 +17798,7 @@
         <v>225</v>
       </c>
       <c r="G644">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H644">
         <v>14</v>
@@ -17824,7 +17824,7 @@
         <v>225</v>
       </c>
       <c r="G645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645">
         <v>13</v>
@@ -17850,7 +17850,7 @@
         <v>198</v>
       </c>
       <c r="G646">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H646">
         <v>27</v>
@@ -17876,7 +17876,7 @@
         <v>216</v>
       </c>
       <c r="G647">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H647">
         <v>2</v>
@@ -17902,7 +17902,7 @@
         <v>216</v>
       </c>
       <c r="G648">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H648">
         <v>1</v>
@@ -17928,7 +17928,7 @@
         <v>148</v>
       </c>
       <c r="G649">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H649">
         <v>15</v>
@@ -17954,7 +17954,7 @@
         <v>134</v>
       </c>
       <c r="G650">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H650">
         <v>4</v>
@@ -17980,7 +17980,7 @@
         <v>161</v>
       </c>
       <c r="G651">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651">
         <v>16</v>
@@ -18006,7 +18006,7 @@
         <v>229</v>
       </c>
       <c r="G652">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H652">
         <v>16</v>
@@ -18032,7 +18032,7 @@
         <v>203</v>
       </c>
       <c r="G653">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H653">
         <v>18</v>
@@ -18058,7 +18058,7 @@
         <v>171</v>
       </c>
       <c r="G654">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H654">
         <v>8</v>
@@ -18084,7 +18084,7 @@
         <v>171</v>
       </c>
       <c r="G655">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H655">
         <v>10</v>
@@ -18110,7 +18110,7 @@
         <v>230</v>
       </c>
       <c r="G656">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H656">
         <v>40</v>
@@ -18136,7 +18136,7 @@
         <v>131</v>
       </c>
       <c r="G657">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="H657">
         <v>3</v>
@@ -18162,7 +18162,7 @@
         <v>131</v>
       </c>
       <c r="G658">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H658">
         <v>4</v>
@@ -18188,7 +18188,7 @@
         <v>132</v>
       </c>
       <c r="G659">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H659">
         <v>3</v>
@@ -18214,7 +18214,7 @@
         <v>132</v>
       </c>
       <c r="G660">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H660">
         <v>4</v>
@@ -18240,7 +18240,7 @@
         <v>132</v>
       </c>
       <c r="G661">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H661">
         <v>3</v>
@@ -18266,7 +18266,7 @@
         <v>147</v>
       </c>
       <c r="G662">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H662">
         <v>18</v>
@@ -18292,7 +18292,7 @@
         <v>147</v>
       </c>
       <c r="G663">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H663">
         <v>16</v>
@@ -18318,7 +18318,7 @@
         <v>143</v>
       </c>
       <c r="G664">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H664">
         <v>18</v>
@@ -18344,7 +18344,7 @@
         <v>143</v>
       </c>
       <c r="G665">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H665">
         <v>20</v>
@@ -18370,7 +18370,7 @@
         <v>134</v>
       </c>
       <c r="G666">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H666">
         <v>6</v>
@@ -18396,7 +18396,7 @@
         <v>134</v>
       </c>
       <c r="G667">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H667">
         <v>8</v>
@@ -18422,7 +18422,7 @@
         <v>134</v>
       </c>
       <c r="G668">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H668">
         <v>3</v>
@@ -18448,7 +18448,7 @@
         <v>134</v>
       </c>
       <c r="G669">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H669">
         <v>4</v>
@@ -18474,7 +18474,7 @@
         <v>137</v>
       </c>
       <c r="G670">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H670">
         <v>6</v>
@@ -18500,7 +18500,7 @@
         <v>137</v>
       </c>
       <c r="G671">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H671">
         <v>8</v>
@@ -18526,7 +18526,7 @@
         <v>137</v>
       </c>
       <c r="G672">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H672">
         <v>4</v>
@@ -18552,7 +18552,7 @@
         <v>160</v>
       </c>
       <c r="G673">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H673">
         <v>4</v>
@@ -18578,7 +18578,7 @@
         <v>160</v>
       </c>
       <c r="G674">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H674">
         <v>3</v>
@@ -18604,7 +18604,7 @@
         <v>160</v>
       </c>
       <c r="G675">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H675">
         <v>5</v>
@@ -18630,7 +18630,7 @@
         <v>141</v>
       </c>
       <c r="G676">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H676">
         <v>8</v>
@@ -18656,7 +18656,7 @@
         <v>141</v>
       </c>
       <c r="G677">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H677">
         <v>3</v>
@@ -18682,7 +18682,7 @@
         <v>141</v>
       </c>
       <c r="G678">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H678">
         <v>10</v>
@@ -18708,7 +18708,7 @@
         <v>186</v>
       </c>
       <c r="G679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H679">
         <v>20</v>
@@ -18734,7 +18734,7 @@
         <v>142</v>
       </c>
       <c r="G680">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H680">
         <v>20</v>
@@ -18760,7 +18760,7 @@
         <v>211</v>
       </c>
       <c r="G681">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681">
         <v>4</v>
@@ -18786,7 +18786,7 @@
         <v>231</v>
       </c>
       <c r="G682">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H682">
         <v>10</v>
@@ -18812,7 +18812,7 @@
         <v>231</v>
       </c>
       <c r="G683">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H683">
         <v>12</v>
@@ -18838,7 +18838,7 @@
         <v>206</v>
       </c>
       <c r="G684">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H684">
         <v>8</v>
@@ -18864,7 +18864,7 @@
         <v>206</v>
       </c>
       <c r="G685">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H685">
         <v>10</v>
@@ -18890,7 +18890,7 @@
         <v>194</v>
       </c>
       <c r="G686">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H686">
         <v>15</v>
@@ -18916,7 +18916,7 @@
         <v>138</v>
       </c>
       <c r="G687">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H687">
         <v>6</v>
@@ -18942,7 +18942,7 @@
         <v>138</v>
       </c>
       <c r="G688">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H688">
         <v>4</v>
@@ -18968,7 +18968,7 @@
         <v>181</v>
       </c>
       <c r="G689">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H689">
         <v>6</v>
@@ -18994,7 +18994,7 @@
         <v>181</v>
       </c>
       <c r="G690">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H690">
         <v>4</v>
@@ -19020,7 +19020,7 @@
         <v>162</v>
       </c>
       <c r="G691">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H691">
         <v>22</v>
@@ -19046,7 +19046,7 @@
         <v>162</v>
       </c>
       <c r="G692">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H692">
         <v>18</v>
@@ -19072,7 +19072,7 @@
         <v>162</v>
       </c>
       <c r="G693">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H693">
         <v>16</v>
@@ -19098,7 +19098,7 @@
         <v>139</v>
       </c>
       <c r="G694">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H694">
         <v>20</v>
@@ -19124,7 +19124,7 @@
         <v>139</v>
       </c>
       <c r="G695">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H695">
         <v>18</v>
@@ -19150,7 +19150,7 @@
         <v>174</v>
       </c>
       <c r="G696">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H696">
         <v>18</v>
@@ -19176,7 +19176,7 @@
         <v>174</v>
       </c>
       <c r="G697">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H697">
         <v>16</v>
@@ -19202,7 +19202,7 @@
         <v>174</v>
       </c>
       <c r="G698">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H698">
         <v>14</v>
@@ -19228,7 +19228,7 @@
         <v>223</v>
       </c>
       <c r="G699">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H699">
         <v>10</v>
@@ -19254,7 +19254,7 @@
         <v>223</v>
       </c>
       <c r="G700">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H700">
         <v>11</v>
@@ -19280,7 +19280,7 @@
         <v>135</v>
       </c>
       <c r="G701">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H701">
         <v>4</v>
@@ -19306,7 +19306,7 @@
         <v>135</v>
       </c>
       <c r="G702">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H702">
         <v>5</v>
@@ -19332,7 +19332,7 @@
         <v>135</v>
       </c>
       <c r="G703">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H703">
         <v>6</v>
@@ -19358,7 +19358,7 @@
         <v>136</v>
       </c>
       <c r="G704">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H704">
         <v>6</v>
@@ -19384,7 +19384,7 @@
         <v>136</v>
       </c>
       <c r="G705">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H705">
         <v>5</v>
@@ -19410,7 +19410,7 @@
         <v>136</v>
       </c>
       <c r="G706">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H706">
         <v>6</v>
@@ -19436,7 +19436,7 @@
         <v>136</v>
       </c>
       <c r="G707">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H707">
         <v>8</v>
@@ -19462,7 +19462,7 @@
         <v>167</v>
       </c>
       <c r="G708">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H708">
         <v>15</v>
@@ -19488,7 +19488,7 @@
         <v>219</v>
       </c>
       <c r="G709">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H709">
         <v>5</v>
@@ -19514,7 +19514,7 @@
         <v>152</v>
       </c>
       <c r="G710">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H710">
         <v>10</v>
@@ -19540,7 +19540,7 @@
         <v>159</v>
       </c>
       <c r="G711">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H711">
         <v>14</v>
@@ -19566,7 +19566,7 @@
         <v>222</v>
       </c>
       <c r="G712">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H712">
         <v>18</v>
@@ -19592,7 +19592,7 @@
         <v>209</v>
       </c>
       <c r="G713">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H713">
         <v>7</v>
@@ -19618,7 +19618,7 @@
         <v>136</v>
       </c>
       <c r="G714">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H714">
         <v>6</v>
@@ -19644,7 +19644,7 @@
         <v>136</v>
       </c>
       <c r="G715">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H715">
         <v>4</v>
@@ -19670,7 +19670,7 @@
         <v>214</v>
       </c>
       <c r="G716">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H716">
         <v>17</v>
@@ -19696,7 +19696,7 @@
         <v>152</v>
       </c>
       <c r="G717">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H717">
         <v>8</v>
@@ -19722,7 +19722,7 @@
         <v>138</v>
       </c>
       <c r="G718">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H718">
         <v>6</v>
@@ -19748,7 +19748,7 @@
         <v>138</v>
       </c>
       <c r="G719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H719">
         <v>8</v>
@@ -19774,7 +19774,7 @@
         <v>133</v>
       </c>
       <c r="G720">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H720">
         <v>8</v>
@@ -19800,7 +19800,7 @@
         <v>133</v>
       </c>
       <c r="G721">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H721">
         <v>10</v>
@@ -19826,7 +19826,7 @@
         <v>133</v>
       </c>
       <c r="G722">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H722">
         <v>12</v>
@@ -19852,7 +19852,7 @@
         <v>164</v>
       </c>
       <c r="G723">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H723">
         <v>17</v>
@@ -19878,7 +19878,7 @@
         <v>164</v>
       </c>
       <c r="G724">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H724">
         <v>16</v>
@@ -19904,7 +19904,7 @@
         <v>164</v>
       </c>
       <c r="G725">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H725">
         <v>20</v>
@@ -19930,7 +19930,7 @@
         <v>164</v>
       </c>
       <c r="G726">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H726">
         <v>12</v>
@@ -19956,7 +19956,7 @@
         <v>166</v>
       </c>
       <c r="G727">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H727">
         <v>10</v>
@@ -19982,7 +19982,7 @@
         <v>156</v>
       </c>
       <c r="G728">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H728">
         <v>23</v>
@@ -20008,7 +20008,7 @@
         <v>165</v>
       </c>
       <c r="G729">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H729">
         <v>8</v>
@@ -20034,7 +20034,7 @@
         <v>165</v>
       </c>
       <c r="G730">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H730">
         <v>6</v>
@@ -20060,7 +20060,7 @@
         <v>165</v>
       </c>
       <c r="G731">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H731">
         <v>3</v>
@@ -20086,7 +20086,7 @@
         <v>165</v>
       </c>
       <c r="G732">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H732">
         <v>4</v>
@@ -20112,7 +20112,7 @@
         <v>165</v>
       </c>
       <c r="G733">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H733">
         <v>6</v>
@@ -20138,7 +20138,7 @@
         <v>165</v>
       </c>
       <c r="G734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H734">
         <v>7</v>
@@ -20164,7 +20164,7 @@
         <v>145</v>
       </c>
       <c r="G735">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H735">
         <v>3</v>
@@ -20190,7 +20190,7 @@
         <v>145</v>
       </c>
       <c r="G736">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H736">
         <v>4</v>
@@ -20216,7 +20216,7 @@
         <v>145</v>
       </c>
       <c r="G737">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H737">
         <v>2</v>
@@ -20242,7 +20242,7 @@
         <v>145</v>
       </c>
       <c r="G738">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H738">
         <v>5</v>
@@ -20268,7 +20268,7 @@
         <v>139</v>
       </c>
       <c r="G739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H739">
         <v>12</v>
@@ -20294,7 +20294,7 @@
         <v>139</v>
       </c>
       <c r="G740">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H740">
         <v>14</v>
@@ -20320,7 +20320,7 @@
         <v>143</v>
       </c>
       <c r="G741">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H741">
         <v>20</v>
@@ -20346,7 +20346,7 @@
         <v>163</v>
       </c>
       <c r="G742">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H742">
         <v>3</v>
@@ -20372,7 +20372,7 @@
         <v>218</v>
       </c>
       <c r="G743">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H743">
         <v>24</v>
@@ -20398,7 +20398,7 @@
         <v>211</v>
       </c>
       <c r="G744">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H744">
         <v>4</v>
@@ -20424,7 +20424,7 @@
         <v>151</v>
       </c>
       <c r="G745">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H745">
         <v>20</v>
@@ -20450,7 +20450,7 @@
         <v>151</v>
       </c>
       <c r="G746">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H746">
         <v>18</v>
@@ -20476,7 +20476,7 @@
         <v>157</v>
       </c>
       <c r="G747">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H747">
         <v>3</v>
@@ -20502,7 +20502,7 @@
         <v>157</v>
       </c>
       <c r="G748">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H748">
         <v>3</v>
@@ -20528,7 +20528,7 @@
         <v>157</v>
       </c>
       <c r="G749">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H749">
         <v>2</v>
@@ -20554,7 +20554,7 @@
         <v>183</v>
       </c>
       <c r="G750">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H750">
         <v>5</v>
@@ -20580,7 +20580,7 @@
         <v>183</v>
       </c>
       <c r="G751">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H751">
         <v>8</v>
@@ -20606,7 +20606,7 @@
         <v>183</v>
       </c>
       <c r="G752">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H752">
         <v>6</v>
@@ -20632,7 +20632,7 @@
         <v>183</v>
       </c>
       <c r="G753">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H753">
         <v>10</v>
@@ -20658,7 +20658,7 @@
         <v>183</v>
       </c>
       <c r="G754">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H754">
         <v>4</v>
@@ -20684,7 +20684,7 @@
         <v>184</v>
       </c>
       <c r="G755">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H755">
         <v>6</v>
@@ -20710,7 +20710,7 @@
         <v>184</v>
       </c>
       <c r="G756">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H756">
         <v>4</v>
@@ -20736,7 +20736,7 @@
         <v>185</v>
       </c>
       <c r="G757">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H757">
         <v>3</v>
@@ -20762,7 +20762,7 @@
         <v>185</v>
       </c>
       <c r="G758">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H758">
         <v>4</v>
@@ -20788,7 +20788,7 @@
         <v>185</v>
       </c>
       <c r="G759">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H759">
         <v>2</v>
@@ -20814,7 +20814,7 @@
         <v>185</v>
       </c>
       <c r="G760">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H760">
         <v>3</v>
@@ -20840,7 +20840,7 @@
         <v>167</v>
       </c>
       <c r="G761">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H761">
         <v>13</v>
@@ -20866,7 +20866,7 @@
         <v>232</v>
       </c>
       <c r="G762">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H762">
         <v>5</v>
@@ -20892,7 +20892,7 @@
         <v>174</v>
       </c>
       <c r="G763">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H763">
         <v>14</v>
@@ -20918,7 +20918,7 @@
         <v>205</v>
       </c>
       <c r="G764">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H764">
         <v>18</v>
@@ -20944,7 +20944,7 @@
         <v>233</v>
       </c>
       <c r="G765">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H765">
         <v>23</v>
@@ -20970,7 +20970,7 @@
         <v>152</v>
       </c>
       <c r="G766">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H766">
         <v>11</v>
@@ -20996,7 +20996,7 @@
         <v>147</v>
       </c>
       <c r="G767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H767">
         <v>6</v>
@@ -21022,7 +21022,7 @@
         <v>210</v>
       </c>
       <c r="G768">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H768">
         <v>14</v>
@@ -21048,7 +21048,7 @@
         <v>225</v>
       </c>
       <c r="G769">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H769">
         <v>15</v>
@@ -21074,7 +21074,7 @@
         <v>154</v>
       </c>
       <c r="G770">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H770">
         <v>16</v>
@@ -21100,7 +21100,7 @@
         <v>197</v>
       </c>
       <c r="G771">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H771">
         <v>23</v>
@@ -21126,7 +21126,7 @@
         <v>152</v>
       </c>
       <c r="G772">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H772">
         <v>3</v>
@@ -21152,7 +21152,7 @@
         <v>190</v>
       </c>
       <c r="G773">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H773">
         <v>6</v>
@@ -21178,7 +21178,7 @@
         <v>234</v>
       </c>
       <c r="G774">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H774">
         <v>5</v>
@@ -21204,7 +21204,7 @@
         <v>234</v>
       </c>
       <c r="G775">
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="H775">
         <v>5</v>
